--- a/深圳签订外贸合同数据预测/end_out(中国台湾).xlsx
+++ b/深圳签订外贸合同数据预测/end_out(中国台湾).xlsx
@@ -869,7 +869,7 @@
       <c r="B36" t="inlineStr"/>
       <c r="C36" t="inlineStr"/>
       <c r="D36" t="n">
-        <v>505.7826509908289</v>
+        <v>554.6408036579317</v>
       </c>
     </row>
     <row r="37">
@@ -879,7 +879,7 @@
       <c r="B37" t="inlineStr"/>
       <c r="C37" t="inlineStr"/>
       <c r="D37" t="n">
-        <v>553.0611650008657</v>
+        <v>615.687099788607</v>
       </c>
     </row>
     <row r="38">
@@ -889,7 +889,7 @@
       <c r="B38" t="inlineStr"/>
       <c r="C38" t="inlineStr"/>
       <c r="D38" t="n">
-        <v>522.109351930112</v>
+        <v>647.3378241106057</v>
       </c>
     </row>
     <row r="39">
@@ -899,7 +899,7 @@
       <c r="B39" t="inlineStr"/>
       <c r="C39" t="inlineStr"/>
       <c r="D39" t="n">
-        <v>542.3725677359959</v>
+        <v>689.2260296277778</v>
       </c>
     </row>
     <row r="40">
@@ -909,7 +909,7 @@
       <c r="B40" t="inlineStr"/>
       <c r="C40" t="inlineStr"/>
       <c r="D40" t="n">
-        <v>529.10685325726</v>
+        <v>727.5488674799266</v>
       </c>
     </row>
     <row r="41">
@@ -919,7 +919,7 @@
       <c r="B41" t="inlineStr"/>
       <c r="C41" t="inlineStr"/>
       <c r="D41" t="n">
-        <v>537.7915152732586</v>
+        <v>767.1134020291876</v>
       </c>
     </row>
     <row r="42">
@@ -929,7 +929,7 @@
       <c r="B42" t="inlineStr"/>
       <c r="C42" t="inlineStr"/>
       <c r="D42" t="n">
-        <v>532.105929739737</v>
+        <v>806.2454957104995</v>
       </c>
     </row>
     <row r="43">
@@ -939,7 +939,7 @@
       <c r="B43" t="inlineStr"/>
       <c r="C43" t="inlineStr"/>
       <c r="D43" t="n">
-        <v>535.8281106144148</v>
+        <v>845.5281938870214</v>
       </c>
     </row>
     <row r="44">
@@ -949,7 +949,7 @@
       <c r="B44" t="inlineStr"/>
       <c r="C44" t="inlineStr"/>
       <c r="D44" t="n">
-        <v>533.3913113820171</v>
+        <v>884.7584416231283</v>
       </c>
     </row>
     <row r="45">
@@ -959,7 +959,7 @@
       <c r="B45" t="inlineStr"/>
       <c r="C45" t="inlineStr"/>
       <c r="D45" t="n">
-        <v>534.9866101326529</v>
+        <v>924.0069560696405</v>
       </c>
     </row>
   </sheetData>
